--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf22-Fgfrl1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf22-Fgfrl1.xlsx
@@ -79,25 +79,25 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Fgf22</t>
+  </si>
+  <si>
+    <t>Fgfrl1</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
-    <t>Fgf22</t>
-  </si>
-  <si>
-    <t>Fgfrl1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>MuSCs</t>
   </si>
   <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -549,10 +549,10 @@
         <v>0.09429700000000001</v>
       </c>
       <c r="I2">
-        <v>0.2932886699262245</v>
+        <v>0.3046368955123587</v>
       </c>
       <c r="J2">
-        <v>0.2932886699262245</v>
+        <v>0.3046368955123587</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.1331785</v>
+        <v>1.170631</v>
       </c>
       <c r="N2">
-        <v>2.266357</v>
+        <v>2.341262</v>
       </c>
       <c r="O2">
-        <v>0.127252734974101</v>
+        <v>0.1596624636318675</v>
       </c>
       <c r="P2">
-        <v>0.1025085582972401</v>
+        <v>0.1281983861842902</v>
       </c>
       <c r="Q2">
-        <v>0.03561844433816667</v>
+        <v>0.03679566380233333</v>
       </c>
       <c r="R2">
-        <v>0.213710666029</v>
+        <v>0.220773982814</v>
       </c>
       <c r="S2">
-        <v>0.03732178538502845</v>
+        <v>0.048639077250667</v>
       </c>
       <c r="T2">
-        <v>0.0300645987190524</v>
+        <v>0.03905395837687663</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,10 +611,10 @@
         <v>0.09429700000000001</v>
       </c>
       <c r="I3">
-        <v>0.2932886699262245</v>
+        <v>0.3046368955123587</v>
       </c>
       <c r="J3">
-        <v>0.2932886699262245</v>
+        <v>0.3046368955123587</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,10 +629,10 @@
         <v>9.020752999999999</v>
       </c>
       <c r="O3">
-        <v>0.3376683346227232</v>
+        <v>0.4101137613801331</v>
       </c>
       <c r="P3">
-        <v>0.4080135586694874</v>
+        <v>0.4939412918191532</v>
       </c>
       <c r="Q3">
         <v>0.09451443840455555</v>
@@ -641,10 +641,10 @@
         <v>0.8506299456409999</v>
       </c>
       <c r="S3">
-        <v>0.09903429673770181</v>
+        <v>0.12493578307374</v>
       </c>
       <c r="T3">
-        <v>0.1196657539340395</v>
+        <v>0.1504727417051509</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -673,10 +673,10 @@
         <v>0.09429700000000001</v>
       </c>
       <c r="I4">
-        <v>0.2932886699262245</v>
+        <v>0.3046368955123587</v>
       </c>
       <c r="J4">
-        <v>0.2932886699262245</v>
+        <v>0.3046368955123587</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1833036666666666</v>
+        <v>0.1597873333333333</v>
       </c>
       <c r="N4">
-        <v>0.5499109999999999</v>
+        <v>0.479362</v>
       </c>
       <c r="O4">
-        <v>0.02058448242189054</v>
+        <v>0.02179340825346879</v>
       </c>
       <c r="P4">
-        <v>0.02487277326643313</v>
+        <v>0.02624799565280337</v>
       </c>
       <c r="Q4">
-        <v>0.005761661951888888</v>
+        <v>0.005022488723777778</v>
       </c>
       <c r="R4">
-        <v>0.051854957567</v>
+        <v>0.04520239851400001</v>
       </c>
       <c r="S4">
-        <v>0.006037195470636025</v>
+        <v>0.006639076232970148</v>
       </c>
       <c r="T4">
-        <v>0.007294902588688728</v>
+        <v>0.007996107909091908</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -735,10 +735,10 @@
         <v>0.09429700000000001</v>
       </c>
       <c r="I5">
-        <v>0.2932886699262245</v>
+        <v>0.3046368955123587</v>
       </c>
       <c r="J5">
-        <v>0.2932886699262245</v>
+        <v>0.3046368955123587</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.4727</v>
+        <v>2.5622985</v>
       </c>
       <c r="N5">
-        <v>6.9454</v>
+        <v>5.124597</v>
       </c>
       <c r="O5">
-        <v>0.3899743709791181</v>
+        <v>0.349472114671693</v>
       </c>
       <c r="P5">
-        <v>0.3141442150542265</v>
+        <v>0.2806029676494365</v>
       </c>
       <c r="Q5">
-        <v>0.1091550639666667</v>
+        <v>0.08053902055149999</v>
       </c>
       <c r="R5">
-        <v>0.6549303838</v>
+        <v>0.483234123309</v>
       </c>
       <c r="S5">
-        <v>0.1143750645697816</v>
+        <v>0.1064621000817236</v>
       </c>
       <c r="T5">
-        <v>0.09213493899827191</v>
+        <v>0.08548201693627917</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -797,10 +797,10 @@
         <v>0.09429700000000001</v>
       </c>
       <c r="I6">
-        <v>0.2932886699262245</v>
+        <v>0.3046368955123587</v>
       </c>
       <c r="J6">
-        <v>0.2932886699262245</v>
+        <v>0.3046368955123587</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8583593333333334</v>
+        <v>0.2687716666666666</v>
       </c>
       <c r="N6">
-        <v>2.575078</v>
+        <v>0.8063149999999999</v>
       </c>
       <c r="O6">
-        <v>0.09639132118833238</v>
+        <v>0.03665779093022745</v>
       </c>
       <c r="P6">
-        <v>0.1164721768383977</v>
+        <v>0.04415066821064279</v>
       </c>
       <c r="Q6">
-        <v>0.02698023668511111</v>
+        <v>0.008448120617222221</v>
       </c>
       <c r="R6">
-        <v>0.242822130166</v>
+        <v>0.07603308555499999</v>
       </c>
       <c r="S6">
-        <v>0.02827048238375751</v>
+        <v>0.01116731562532559</v>
       </c>
       <c r="T6">
-        <v>0.03415996982834567</v>
+        <v>0.0134499224984864</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -859,40 +859,40 @@
         <v>0.09429700000000001</v>
       </c>
       <c r="I7">
-        <v>0.2932886699262245</v>
+        <v>0.3046368955123587</v>
       </c>
       <c r="J7">
-        <v>0.2932886699262245</v>
+        <v>0.3046368955123587</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.250485</v>
+        <v>0.163505</v>
       </c>
       <c r="N7">
-        <v>0.751455</v>
+        <v>0.490515</v>
       </c>
       <c r="O7">
-        <v>0.02812875581383489</v>
+        <v>0.02230046113261011</v>
       </c>
       <c r="P7">
-        <v>0.03398871787421513</v>
+        <v>0.02685869048367381</v>
       </c>
       <c r="Q7">
-        <v>0.007873328015</v>
+        <v>0.005139343661666667</v>
       </c>
       <c r="R7">
-        <v>0.070859952135</v>
+        <v>0.04625409295500001</v>
       </c>
       <c r="S7">
-        <v>0.008249845379319189</v>
+        <v>0.006793543247932361</v>
       </c>
       <c r="T7">
-        <v>0.009968505857826247</v>
+        <v>0.008182148086473724</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.07573966666666666</v>
+        <v>0.07174733333333333</v>
       </c>
       <c r="H8">
-        <v>0.227219</v>
+        <v>0.215242</v>
       </c>
       <c r="I8">
-        <v>0.7067113300737755</v>
+        <v>0.6953631044876413</v>
       </c>
       <c r="J8">
-        <v>0.7067113300737754</v>
+        <v>0.6953631044876413</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.1331785</v>
+        <v>1.170631</v>
       </c>
       <c r="N8">
-        <v>2.266357</v>
+        <v>2.341262</v>
       </c>
       <c r="O8">
-        <v>0.127252734974101</v>
+        <v>0.1596624636318675</v>
       </c>
       <c r="P8">
-        <v>0.1025085582972401</v>
+        <v>0.1281983861842902</v>
       </c>
       <c r="Q8">
-        <v>0.08582656186383333</v>
+        <v>0.08398965256733333</v>
       </c>
       <c r="R8">
-        <v>0.5149593711830001</v>
+        <v>0.503937915404</v>
       </c>
       <c r="S8">
-        <v>0.08993094958907259</v>
+        <v>0.1110233863812005</v>
       </c>
       <c r="T8">
-        <v>0.07244395957818771</v>
+        <v>0.08914442780741359</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.07573966666666666</v>
+        <v>0.07174733333333333</v>
       </c>
       <c r="H9">
-        <v>0.227219</v>
+        <v>0.215242</v>
       </c>
       <c r="I9">
-        <v>0.7067113300737755</v>
+        <v>0.6953631044876413</v>
       </c>
       <c r="J9">
-        <v>0.7067113300737754</v>
+        <v>0.6953631044876413</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>9.020752999999999</v>
       </c>
       <c r="O9">
-        <v>0.3376683346227232</v>
+        <v>0.4101137613801331</v>
       </c>
       <c r="P9">
-        <v>0.4080135586694874</v>
+        <v>0.4939412918191532</v>
       </c>
       <c r="Q9">
-        <v>0.2277429417674444</v>
+        <v>0.2157383241362222</v>
       </c>
       <c r="R9">
-        <v>2.049686475907</v>
+        <v>1.941644917226</v>
       </c>
       <c r="S9">
-        <v>0.2386340378850214</v>
+        <v>0.2851779783063931</v>
       </c>
       <c r="T9">
-        <v>0.2883478047354479</v>
+        <v>0.3434685501140023</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1039,16 +1039,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.07573966666666666</v>
+        <v>0.07174733333333333</v>
       </c>
       <c r="H10">
-        <v>0.227219</v>
+        <v>0.215242</v>
       </c>
       <c r="I10">
-        <v>0.7067113300737755</v>
+        <v>0.6953631044876413</v>
       </c>
       <c r="J10">
-        <v>0.7067113300737754</v>
+        <v>0.6953631044876413</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1057,28 +1057,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.1833036666666666</v>
+        <v>0.1597873333333333</v>
       </c>
       <c r="N10">
-        <v>0.5499109999999999</v>
+        <v>0.479362</v>
       </c>
       <c r="O10">
-        <v>0.02058448242189054</v>
+        <v>0.02179340825346879</v>
       </c>
       <c r="P10">
-        <v>0.02487277326643313</v>
+        <v>0.02624799565280337</v>
       </c>
       <c r="Q10">
-        <v>0.01388335861211111</v>
+        <v>0.01146431506711111</v>
       </c>
       <c r="R10">
-        <v>0.124950227509</v>
+        <v>0.103178835604</v>
       </c>
       <c r="S10">
-        <v>0.01454728695125451</v>
+        <v>0.01515433202049865</v>
       </c>
       <c r="T10">
-        <v>0.0175778706777444</v>
+        <v>0.01825188774371147</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1101,16 +1101,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.07573966666666666</v>
+        <v>0.07174733333333333</v>
       </c>
       <c r="H11">
-        <v>0.227219</v>
+        <v>0.215242</v>
       </c>
       <c r="I11">
-        <v>0.7067113300737755</v>
+        <v>0.6953631044876413</v>
       </c>
       <c r="J11">
-        <v>0.7067113300737754</v>
+        <v>0.6953631044876413</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.4727</v>
+        <v>2.5622985</v>
       </c>
       <c r="N11">
-        <v>6.9454</v>
+        <v>5.124597</v>
       </c>
       <c r="O11">
-        <v>0.3899743709791181</v>
+        <v>0.349472114671693</v>
       </c>
       <c r="P11">
-        <v>0.3141442150542265</v>
+        <v>0.2806029676494365</v>
       </c>
       <c r="Q11">
-        <v>0.2630211404333334</v>
+        <v>0.183838084579</v>
       </c>
       <c r="R11">
-        <v>1.5781268426</v>
+        <v>1.103028507474</v>
       </c>
       <c r="S11">
-        <v>0.2755993064093366</v>
+        <v>0.2430100145899694</v>
       </c>
       <c r="T11">
-        <v>0.2220092760559545</v>
+        <v>0.1951209507131574</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1163,16 +1163,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.07573966666666666</v>
+        <v>0.07174733333333333</v>
       </c>
       <c r="H12">
-        <v>0.227219</v>
+        <v>0.215242</v>
       </c>
       <c r="I12">
-        <v>0.7067113300737755</v>
+        <v>0.6953631044876413</v>
       </c>
       <c r="J12">
-        <v>0.7067113300737754</v>
+        <v>0.6953631044876413</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8583593333333334</v>
+        <v>0.2687716666666666</v>
       </c>
       <c r="N12">
-        <v>2.575078</v>
+        <v>0.8063149999999999</v>
       </c>
       <c r="O12">
-        <v>0.09639132118833238</v>
+        <v>0.03665779093022745</v>
       </c>
       <c r="P12">
-        <v>0.1164721768383977</v>
+        <v>0.04415066821064279</v>
       </c>
       <c r="Q12">
-        <v>0.06501184978688888</v>
+        <v>0.01928365035888889</v>
       </c>
       <c r="R12">
-        <v>0.585106648082</v>
+        <v>0.17355285323</v>
       </c>
       <c r="S12">
-        <v>0.06812083880457488</v>
+        <v>0.02549047530490186</v>
       </c>
       <c r="T12">
-        <v>0.082312207010052</v>
+        <v>0.03070074571215638</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1225,46 +1225,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.07573966666666666</v>
+        <v>0.07174733333333333</v>
       </c>
       <c r="H13">
-        <v>0.227219</v>
+        <v>0.215242</v>
       </c>
       <c r="I13">
-        <v>0.7067113300737755</v>
+        <v>0.6953631044876413</v>
       </c>
       <c r="J13">
-        <v>0.7067113300737754</v>
+        <v>0.6953631044876413</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.250485</v>
+        <v>0.163505</v>
       </c>
       <c r="N13">
-        <v>0.751455</v>
+        <v>0.490515</v>
       </c>
       <c r="O13">
-        <v>0.02812875581383489</v>
+        <v>0.02230046113261011</v>
       </c>
       <c r="P13">
-        <v>0.03398871787421513</v>
+        <v>0.02685869048367381</v>
       </c>
       <c r="Q13">
-        <v>0.018971650405</v>
+        <v>0.01173104773666667</v>
       </c>
       <c r="R13">
-        <v>0.170744853645</v>
+        <v>0.10557942963</v>
       </c>
       <c r="S13">
-        <v>0.0198789104345157</v>
+        <v>0.01550691788467774</v>
       </c>
       <c r="T13">
-        <v>0.02402021201638888</v>
+        <v>0.01867654239720009</v>
       </c>
     </row>
   </sheetData>
